--- a/DataFolder/Plum_1-24_O/LaneMapReport.xlsx
+++ b/DataFolder/Plum_1-24_O/LaneMapReport.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
-    <t>ABC Bowling Center Lanes  23 - 24</t>
+    <t>Plum Lanes  23 - 24</t>
   </si>
   <si>
     <t>Center</t>

--- a/DataFolder/Plum_1-24_O/LaneMapReport.xlsx
+++ b/DataFolder/Plum_1-24_O/LaneMapReport.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
-    <t>Plum Lanes  23 - 24</t>
+    <t>Plum 1-24 Lanes  23 - 24</t>
   </si>
   <si>
     <t>Center</t>

--- a/DataFolder/Plum_1-24_O/LaneMapReport.xlsx
+++ b/DataFolder/Plum_1-24_O/LaneMapReport.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
-    <t>Plum 1-24 Lanes  23 - 24</t>
+    <t>KTC Topography Report Lanes  23 - 24</t>
   </si>
   <si>
     <t>Center</t>
@@ -847,112 +847,112 @@
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M4" s="5">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="N4" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="O4" s="5">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="P4" s="5">
+        <v>-13</v>
+      </c>
+      <c r="Q4" s="5">
         <v>-15</v>
       </c>
-      <c r="Q4" s="5">
-        <v>-16</v>
-      </c>
       <c r="R4" s="5">
+        <v>-17</v>
+      </c>
+      <c r="S4" s="5">
         <v>-18</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>-19</v>
-      </c>
-      <c r="T4" s="5">
-        <v>-20</v>
       </c>
       <c r="U4" s="5">
         <v>-18</v>
       </c>
       <c r="V4" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="W4" s="5">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="X4" s="5">
+        <v>-14</v>
+      </c>
+      <c r="Y4" s="5">
         <v>-15</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Z4" s="5">
+        <v>-15</v>
+      </c>
+      <c r="AA4" s="5">
         <v>-16</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>-16</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>-17</v>
       </c>
       <c r="AB4" s="5">
         <v>-17</v>
       </c>
       <c r="AC4" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AD4" s="5">
         <v>-19</v>
       </c>
       <c r="AE4" s="5">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="AF4" s="5">
         <v>-18</v>
       </c>
       <c r="AG4" s="5">
+        <v>-17</v>
+      </c>
+      <c r="AH4" s="5">
         <v>-18</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>-19</v>
       </c>
       <c r="AI4" s="5">
         <v>-19</v>
       </c>
       <c r="AJ4" s="5">
+        <v>-19</v>
+      </c>
+      <c r="AK4" s="5">
         <v>-20</v>
       </c>
-      <c r="AK4" s="6">
-        <v>-21</v>
-      </c>
-      <c r="AL4" s="6">
-        <v>-21</v>
+      <c r="AL4" s="5">
+        <v>-20</v>
       </c>
       <c r="AM4" s="5">
         <v>-20</v>
       </c>
       <c r="AN4" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AO4" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AP4" s="5">
         <v>-12</v>
       </c>
       <c r="AQ4" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AR4" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AS4" s="5">
         <v>-4</v>
       </c>
       <c r="AT4" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AU4" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AV4" s="5">
         <v>-2</v>
@@ -993,40 +993,40 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="N5" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="O5" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P5" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" s="5">
         <v>2</v>
@@ -1035,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="Z5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5" s="5">
         <v>-1</v>
@@ -1050,25 +1050,25 @@
         <v>-2</v>
       </c>
       <c r="AE5" s="5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF5" s="5">
         <v>-1</v>
       </c>
       <c r="AG5" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="5">
         <v>0</v>
       </c>
       <c r="AJ5" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="5">
         <v>-1</v>
@@ -1077,7 +1077,7 @@
         <v>-1</v>
       </c>
       <c r="AN5" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="5">
         <v>-1</v>
@@ -1086,10 +1086,10 @@
         <v>-2</v>
       </c>
       <c r="AQ5" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AR5" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AS5" s="5">
         <v>-4</v>
@@ -1098,7 +1098,7 @@
         <v>-3</v>
       </c>
       <c r="AU5" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AV5" s="5">
         <v>-1</v>
@@ -1139,61 +1139,61 @@
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="5">
-        <v>7</v>
-      </c>
-      <c r="P6" s="5">
         <v>9</v>
       </c>
+      <c r="P6" s="6">
+        <v>11</v>
+      </c>
       <c r="Q6" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R6" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S6" s="6">
+        <v>17</v>
+      </c>
+      <c r="T6" s="6">
+        <v>17</v>
+      </c>
+      <c r="U6" s="6">
         <v>16</v>
       </c>
-      <c r="T6" s="6">
+      <c r="V6" s="6">
+        <v>17</v>
+      </c>
+      <c r="W6" s="6">
+        <v>17</v>
+      </c>
+      <c r="X6" s="6">
         <v>16</v>
       </c>
-      <c r="U6" s="6">
+      <c r="Y6" s="6">
         <v>15</v>
       </c>
-      <c r="V6" s="6">
-        <v>16</v>
-      </c>
-      <c r="W6" s="6">
+      <c r="Z6" s="6">
         <v>15</v>
       </c>
-      <c r="X6" s="6">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>14</v>
-      </c>
       <c r="AA6" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB6" s="6">
         <v>12</v>
       </c>
       <c r="AC6" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE6" s="5">
         <v>10</v>
@@ -1202,19 +1202,19 @@
         <v>11</v>
       </c>
       <c r="AG6" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" s="6">
         <v>12</v>
       </c>
       <c r="AI6" s="6">
+        <v>13</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>13</v>
+      </c>
+      <c r="AK6" s="6">
         <v>12</v>
-      </c>
-      <c r="AJ6" s="6">
-        <v>12</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>10</v>
       </c>
       <c r="AL6" s="5">
         <v>10</v>
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="AN6" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO6" s="5">
         <v>8</v>
@@ -1232,19 +1232,19 @@
         <v>5</v>
       </c>
       <c r="AQ6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" s="5">
         <v>2</v>
       </c>
       <c r="AT6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="5">
         <v>0</v>
@@ -1285,52 +1285,52 @@
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O7" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P7" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R7" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S7" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T7" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U7" s="6">
         <v>13</v>
       </c>
       <c r="V7" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W7" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X7" s="6">
         <v>14</v>
       </c>
       <c r="Y7" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" s="6">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="6">
         <v>13</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>12</v>
       </c>
       <c r="AB7" s="6">
         <v>11</v>
@@ -1345,10 +1345,10 @@
         <v>8</v>
       </c>
       <c r="AF7" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG7" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" s="5">
         <v>8</v>
@@ -1357,10 +1357,10 @@
         <v>7</v>
       </c>
       <c r="AJ7" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK7" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL7" s="5">
         <v>6</v>
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="AN7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO7" s="5">
         <v>4</v>
@@ -1378,19 +1378,19 @@
         <v>2</v>
       </c>
       <c r="AQ7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" s="5">
         <v>-1</v>
       </c>
       <c r="AT7" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AU7" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AV7" s="5">
         <v>0</v>
@@ -1431,52 +1431,52 @@
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M8" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P8" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="5">
+        <v>2</v>
+      </c>
+      <c r="S8" s="5">
+        <v>4</v>
+      </c>
+      <c r="T8" s="5">
+        <v>3</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2</v>
+      </c>
+      <c r="V8" s="5">
         <v>1</v>
       </c>
-      <c r="S8" s="5">
+      <c r="W8" s="5">
         <v>2</v>
       </c>
-      <c r="T8" s="5">
-        <v>2</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="X8" s="5">
         <v>1</v>
       </c>
-      <c r="V8" s="5">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5">
-        <v>0</v>
-      </c>
       <c r="Y8" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA8" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AB8" s="5">
         <v>-4</v>
@@ -1494,7 +1494,7 @@
         <v>-10</v>
       </c>
       <c r="AG8" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AH8" s="5">
         <v>-10</v>
@@ -1503,10 +1503,10 @@
         <v>-11</v>
       </c>
       <c r="AJ8" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AK8" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AL8" s="5">
         <v>-12</v>
@@ -1515,7 +1515,7 @@
         <v>-13</v>
       </c>
       <c r="AN8" s="5">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="AO8" s="5">
         <v>-12</v>
@@ -1524,19 +1524,19 @@
         <v>-13</v>
       </c>
       <c r="AQ8" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AR8" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AS8" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AT8" s="5">
         <v>-8</v>
       </c>
       <c r="AU8" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AV8" s="5">
         <v>-1</v>
@@ -1577,49 +1577,49 @@
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P9" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" s="5">
         <v>3</v>
       </c>
       <c r="V9" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="5">
         <v>3</v>
       </c>
       <c r="Z9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="5">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="5">
         <v>-2</v>
@@ -1640,7 +1640,7 @@
         <v>-1</v>
       </c>
       <c r="AG9" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="5">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="5">
         <v>-2</v>
       </c>
       <c r="AM9" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AN9" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AO9" s="5">
         <v>-3</v>
@@ -1670,10 +1670,10 @@
         <v>-4</v>
       </c>
       <c r="AQ9" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AR9" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AS9" s="5">
         <v>-3</v>
@@ -1682,7 +1682,7 @@
         <v>-3</v>
       </c>
       <c r="AU9" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AV9" s="5">
         <v>-1</v>
@@ -1723,40 +1723,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>-2</v>
+      </c>
+      <c r="O10" s="5">
         <v>-3</v>
       </c>
-      <c r="M10" s="5">
+      <c r="P10" s="5">
         <v>-3</v>
       </c>
-      <c r="N10" s="5">
+      <c r="Q10" s="5">
         <v>-4</v>
       </c>
-      <c r="O10" s="5">
-        <v>-5</v>
-      </c>
-      <c r="P10" s="5">
-        <v>-5</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>-5</v>
-      </c>
       <c r="R10" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="S10" s="5">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="T10" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="U10" s="5">
         <v>-4</v>
       </c>
       <c r="V10" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W10" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="X10" s="5">
         <v>-5</v>
@@ -1765,19 +1765,19 @@
         <v>-5</v>
       </c>
       <c r="Z10" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AA10" s="5">
         <v>-6</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>-7</v>
       </c>
       <c r="AB10" s="5">
         <v>-6</v>
       </c>
       <c r="AC10" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AD10" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AE10" s="5">
         <v>-7</v>
@@ -1786,19 +1786,19 @@
         <v>-7</v>
       </c>
       <c r="AG10" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AH10" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AI10" s="5">
         <v>-5</v>
       </c>
       <c r="AJ10" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AK10" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AL10" s="5">
         <v>-4</v>
@@ -1807,7 +1807,7 @@
         <v>-5</v>
       </c>
       <c r="AN10" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="AO10" s="5">
         <v>-4</v>
@@ -1816,19 +1816,19 @@
         <v>-6</v>
       </c>
       <c r="AQ10" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AR10" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AS10" s="5">
         <v>-8</v>
       </c>
       <c r="AT10" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AU10" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AV10" s="5">
         <v>-2</v>
@@ -1869,52 +1869,52 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N11" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T11" s="5">
+        <v>6</v>
+      </c>
+      <c r="U11" s="5">
+        <v>6</v>
+      </c>
+      <c r="V11" s="5">
+        <v>6</v>
+      </c>
+      <c r="W11" s="5">
         <v>5</v>
-      </c>
-      <c r="U11" s="5">
-        <v>5</v>
-      </c>
-      <c r="V11" s="5">
-        <v>5</v>
-      </c>
-      <c r="W11" s="5">
-        <v>4</v>
       </c>
       <c r="X11" s="5">
         <v>5</v>
       </c>
       <c r="Y11" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="5">
         <v>4</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>3</v>
       </c>
       <c r="AB11" s="5">
         <v>3</v>
@@ -1923,16 +1923,16 @@
         <v>3</v>
       </c>
       <c r="AD11" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="5">
         <v>2</v>
       </c>
-      <c r="AE11" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>1</v>
-      </c>
       <c r="AG11" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="5">
         <v>2</v>
@@ -1941,11 +1941,11 @@
         <v>2</v>
       </c>
       <c r="AJ11" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="5">
         <v>1</v>
       </c>
-      <c r="AK11" s="5">
-        <v>0</v>
-      </c>
       <c r="AL11" s="5">
         <v>0</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="5">
         <v>-2</v>
@@ -1962,19 +1962,19 @@
         <v>-2</v>
       </c>
       <c r="AQ11" s="5">
+        <v>-3</v>
+      </c>
+      <c r="AR11" s="5">
         <v>-4</v>
-      </c>
-      <c r="AR11" s="5">
-        <v>-5</v>
       </c>
       <c r="AS11" s="5">
         <v>-4</v>
       </c>
       <c r="AT11" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AU11" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AV11" s="5">
         <v>-2</v>
@@ -2015,61 +2015,61 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M12" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>-2</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>-2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>-2</v>
+      </c>
+      <c r="S12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>-2</v>
+      </c>
+      <c r="U12" s="5">
+        <v>-2</v>
+      </c>
+      <c r="V12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>-2</v>
+      </c>
+      <c r="X12" s="5">
         <v>-3</v>
-      </c>
-      <c r="O12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="P12" s="5">
-        <v>-4</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="R12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="S12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="T12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="U12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="V12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="W12" s="5">
-        <v>-3</v>
-      </c>
-      <c r="X12" s="5">
-        <v>-4</v>
       </c>
       <c r="Y12" s="5">
         <v>-4</v>
       </c>
       <c r="Z12" s="5">
+        <v>-4</v>
+      </c>
+      <c r="AA12" s="5">
         <v>-5</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>-6</v>
       </c>
       <c r="AB12" s="5">
         <v>-6</v>
       </c>
       <c r="AC12" s="5">
+        <v>-6</v>
+      </c>
+      <c r="AD12" s="5">
         <v>-7</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>-8</v>
       </c>
       <c r="AE12" s="5">
         <v>-9</v>
@@ -2078,28 +2078,28 @@
         <v>-9</v>
       </c>
       <c r="AG12" s="5">
+        <v>-7</v>
+      </c>
+      <c r="AH12" s="5">
         <v>-8</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>-9</v>
       </c>
       <c r="AI12" s="5">
         <v>-9</v>
       </c>
       <c r="AJ12" s="5">
+        <v>-8</v>
+      </c>
+      <c r="AK12" s="5">
         <v>-9</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AL12" s="5">
         <v>-10</v>
       </c>
-      <c r="AL12" s="5">
-        <v>-11</v>
-      </c>
       <c r="AM12" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="AN12" s="5">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="AO12" s="5">
         <v>-11</v>
@@ -2108,19 +2108,19 @@
         <v>-12</v>
       </c>
       <c r="AQ12" s="5">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="AR12" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AS12" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="AT12" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AU12" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AV12" s="5">
         <v>-2</v>
@@ -2161,40 +2161,40 @@
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O13" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P13" s="5">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R13" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="5">
         <v>-1</v>
       </c>
       <c r="V13" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="5">
         <v>-1</v>
@@ -2203,40 +2203,40 @@
         <v>-1</v>
       </c>
       <c r="Z13" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AB13" s="5">
         <v>-3</v>
       </c>
       <c r="AC13" s="5">
+        <v>-2</v>
+      </c>
+      <c r="AD13" s="5">
         <v>-3</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AE13" s="5">
+        <v>-6</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>-6</v>
+      </c>
+      <c r="AG13" s="5">
         <v>-4</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AH13" s="5">
         <v>-5</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>-7</v>
-      </c>
-      <c r="AG13" s="5">
-        <v>-5</v>
-      </c>
-      <c r="AH13" s="5">
-        <v>-6</v>
       </c>
       <c r="AI13" s="5">
         <v>-5</v>
       </c>
       <c r="AJ13" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AK13" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AL13" s="5">
         <v>-6</v>
@@ -2245,7 +2245,7 @@
         <v>-6</v>
       </c>
       <c r="AN13" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="AO13" s="5">
         <v>-6</v>
@@ -2254,19 +2254,19 @@
         <v>-5</v>
       </c>
       <c r="AQ13" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AR13" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AS13" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AT13" s="5">
         <v>-3</v>
       </c>
       <c r="AU13" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AV13" s="5">
         <v>-1</v>
@@ -2307,82 +2307,82 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M14" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="N14" s="5">
+        <v>-8</v>
+      </c>
+      <c r="O14" s="5">
         <v>-9</v>
       </c>
-      <c r="O14" s="5">
-        <v>-11</v>
-      </c>
       <c r="P14" s="5">
+        <v>-10</v>
+      </c>
+      <c r="Q14" s="5">
         <v>-12</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
+        <v>-12</v>
+      </c>
+      <c r="S14" s="5">
+        <v>-12</v>
+      </c>
+      <c r="T14" s="5">
+        <v>-12</v>
+      </c>
+      <c r="U14" s="5">
         <v>-13</v>
       </c>
-      <c r="R14" s="5">
+      <c r="V14" s="5">
         <v>-13</v>
       </c>
-      <c r="S14" s="5">
-        <v>-13</v>
-      </c>
-      <c r="T14" s="5">
-        <v>-13</v>
-      </c>
-      <c r="U14" s="5">
-        <v>-14</v>
-      </c>
-      <c r="V14" s="5">
-        <v>-14</v>
-      </c>
       <c r="W14" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="X14" s="5">
         <v>-12</v>
       </c>
       <c r="Y14" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="Z14" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AA14" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AB14" s="5">
+        <v>-11</v>
+      </c>
+      <c r="AC14" s="5">
         <v>-10</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>-11</v>
       </c>
       <c r="AD14" s="5">
         <v>-10</v>
       </c>
       <c r="AE14" s="5">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="AF14" s="5">
         <v>-10</v>
       </c>
       <c r="AG14" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AH14" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AI14" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AJ14" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AK14" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AL14" s="5">
         <v>-9</v>
@@ -2391,7 +2391,7 @@
         <v>-8</v>
       </c>
       <c r="AN14" s="5">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="AO14" s="5">
         <v>-7</v>
@@ -2400,10 +2400,10 @@
         <v>-8</v>
       </c>
       <c r="AQ14" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AR14" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AS14" s="5">
         <v>-7</v>
@@ -2412,7 +2412,7 @@
         <v>-5</v>
       </c>
       <c r="AU14" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AV14" s="5">
         <v>-1</v>
@@ -2453,40 +2453,40 @@
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M15" s="5">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="N15" s="5">
+        <v>-11</v>
+      </c>
+      <c r="O15" s="5">
         <v>-12</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>-14</v>
       </c>
-      <c r="P15" s="5">
-        <v>-16</v>
-      </c>
       <c r="Q15" s="5">
+        <v>-17</v>
+      </c>
+      <c r="R15" s="5">
+        <v>-17</v>
+      </c>
+      <c r="S15" s="5">
         <v>-18</v>
       </c>
-      <c r="R15" s="5">
-        <v>-18</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>-20</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="6">
         <v>-21</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="6">
         <v>-22</v>
       </c>
-      <c r="V15" s="6">
-        <v>-23</v>
-      </c>
       <c r="W15" s="6">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="X15" s="6">
         <v>-23</v>
@@ -2495,61 +2495,61 @@
         <v>-24</v>
       </c>
       <c r="Z15" s="6">
+        <v>-21</v>
+      </c>
+      <c r="AA15" s="6">
         <v>-22</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>-23</v>
       </c>
       <c r="AB15" s="6">
         <v>-22</v>
       </c>
       <c r="AC15" s="6">
+        <v>-21</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>-20</v>
+      </c>
+      <c r="AE15" s="6">
         <v>-22</v>
       </c>
-      <c r="AD15" s="6">
-        <v>-21</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>-21</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>-21</v>
+      <c r="AF15" s="5">
+        <v>-20</v>
       </c>
       <c r="AG15" s="5">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="AH15" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AI15" s="5">
         <v>-18</v>
       </c>
       <c r="AJ15" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AK15" s="5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="AL15" s="5">
         <v>-18</v>
       </c>
       <c r="AM15" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AN15" s="5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="AO15" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="AP15" s="5">
         <v>-17</v>
       </c>
       <c r="AQ15" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="AR15" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AS15" s="5">
         <v>-12</v>
@@ -2558,7 +2558,7 @@
         <v>-9</v>
       </c>
       <c r="AU15" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AV15" s="5">
         <v>-2</v>
@@ -2599,58 +2599,58 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="N16" s="5">
+        <v>-5</v>
+      </c>
+      <c r="O16" s="5">
         <v>-6</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
+        <v>-7</v>
+      </c>
+      <c r="Q16" s="5">
         <v>-8</v>
       </c>
-      <c r="P16" s="5">
+      <c r="R16" s="5">
         <v>-9</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="S16" s="5">
         <v>-9</v>
       </c>
-      <c r="R16" s="5">
-        <v>-10</v>
-      </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>-11</v>
       </c>
-      <c r="T16" s="5">
-        <v>-12</v>
-      </c>
       <c r="U16" s="5">
+        <v>-13</v>
+      </c>
+      <c r="V16" s="5">
         <v>-14</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
+        <v>-14</v>
+      </c>
+      <c r="X16" s="5">
         <v>-15</v>
       </c>
-      <c r="W16" s="5">
-        <v>-16</v>
-      </c>
-      <c r="X16" s="5">
-        <v>-16</v>
-      </c>
       <c r="Y16" s="5">
-        <v>-18</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>-21</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>-21</v>
+        <v>-17</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>-20</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>-20</v>
       </c>
       <c r="AB16" s="6">
         <v>-22</v>
       </c>
       <c r="AC16" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AD16" s="6">
         <v>-23</v>
@@ -2662,7 +2662,7 @@
         <v>-26</v>
       </c>
       <c r="AG16" s="6">
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="AH16" s="6">
         <v>-25</v>
@@ -2671,10 +2671,10 @@
         <v>-24</v>
       </c>
       <c r="AJ16" s="6">
-        <v>-23</v>
-      </c>
-      <c r="AK16" s="6">
         <v>-22</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>-20</v>
       </c>
       <c r="AL16" s="5">
         <v>-20</v>
@@ -2683,28 +2683,28 @@
         <v>-20</v>
       </c>
       <c r="AN16" s="5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="AO16" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AP16" s="5">
         <v>-16</v>
       </c>
       <c r="AQ16" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AR16" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AS16" s="5">
         <v>-11</v>
       </c>
       <c r="AT16" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AU16" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AV16" s="5">
         <v>-2</v>
@@ -2745,40 +2745,40 @@
         <v>0</v>
       </c>
       <c r="L17" s="5">
+        <v>-2</v>
+      </c>
+      <c r="M17" s="5">
         <v>-5</v>
       </c>
-      <c r="M17" s="5">
-        <v>-7</v>
-      </c>
       <c r="N17" s="5">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="O17" s="5">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="P17" s="5">
+        <v>-12</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>-12</v>
+      </c>
+      <c r="R17" s="5">
         <v>-14</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="S17" s="5">
         <v>-14</v>
       </c>
-      <c r="R17" s="5">
-        <v>-15</v>
-      </c>
-      <c r="S17" s="5">
-        <v>-15</v>
-      </c>
       <c r="T17" s="5">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="U17" s="5">
         <v>-16</v>
       </c>
       <c r="V17" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="W17" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="X17" s="5">
         <v>-16</v>
@@ -2787,28 +2787,28 @@
         <v>-17</v>
       </c>
       <c r="Z17" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AA17" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AB17" s="5">
         <v>-18</v>
       </c>
       <c r="AC17" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AD17" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AE17" s="5">
         <v>-18</v>
       </c>
       <c r="AF17" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="AG17" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AH17" s="5">
         <v>-16</v>
@@ -2817,10 +2817,10 @@
         <v>-16</v>
       </c>
       <c r="AJ17" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AK17" s="5">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="AL17" s="5">
         <v>-14</v>
@@ -2829,7 +2829,7 @@
         <v>-14</v>
       </c>
       <c r="AN17" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AO17" s="5">
         <v>-12</v>
@@ -2838,19 +2838,19 @@
         <v>-13</v>
       </c>
       <c r="AQ17" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AR17" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AS17" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AT17" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AU17" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="AV17" s="5">
         <v>-1</v>
@@ -2891,49 +2891,49 @@
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="N18" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="O18" s="5">
+        <v>-11</v>
+      </c>
+      <c r="P18" s="5">
         <v>-13</v>
       </c>
-      <c r="P18" s="5">
-        <v>-15</v>
-      </c>
       <c r="Q18" s="5">
+        <v>-16</v>
+      </c>
+      <c r="R18" s="5">
         <v>-17</v>
       </c>
-      <c r="R18" s="5">
-        <v>-18</v>
-      </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
+        <v>-19</v>
+      </c>
+      <c r="T18" s="6">
         <v>-21</v>
-      </c>
-      <c r="T18" s="6">
-        <v>-22</v>
       </c>
       <c r="U18" s="6">
         <v>-24</v>
       </c>
       <c r="V18" s="6">
+        <v>-27</v>
+      </c>
+      <c r="W18" s="6">
         <v>-28</v>
-      </c>
-      <c r="W18" s="6">
-        <v>-29</v>
       </c>
       <c r="X18" s="6">
         <v>-27</v>
       </c>
       <c r="Y18" s="6">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="Z18" s="6">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="AA18" s="6">
         <v>-25</v>
@@ -2942,7 +2942,7 @@
         <v>-25</v>
       </c>
       <c r="AC18" s="6">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AD18" s="6">
         <v>-24</v>
@@ -2951,31 +2951,31 @@
         <v>-24</v>
       </c>
       <c r="AF18" s="6">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="AG18" s="6">
-        <v>-23</v>
-      </c>
-      <c r="AH18" s="6">
-        <v>-21</v>
+        <v>-22</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>-20</v>
       </c>
       <c r="AI18" s="5">
         <v>-19</v>
       </c>
       <c r="AJ18" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="AK18" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AL18" s="5">
         <v>-15</v>
       </c>
       <c r="AM18" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AN18" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AO18" s="5">
         <v>-11</v>
@@ -2984,19 +2984,19 @@
         <v>-10</v>
       </c>
       <c r="AQ18" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="AR18" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AS18" s="5">
         <v>-7</v>
       </c>
       <c r="AT18" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AU18" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AV18" s="5">
         <v>-1</v>
@@ -3037,61 +3037,61 @@
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M19" s="5">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="N19" s="5">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="O19" s="5">
-        <v>-17</v>
-      </c>
-      <c r="P19" s="6">
+        <v>-15</v>
+      </c>
+      <c r="P19" s="5">
+        <v>-18</v>
+      </c>
+      <c r="Q19" s="6">
         <v>-21</v>
       </c>
-      <c r="Q19" s="6">
-        <v>-22</v>
-      </c>
       <c r="R19" s="6">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="S19" s="6">
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="T19" s="6">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="U19" s="6">
         <v>-30</v>
       </c>
       <c r="V19" s="7">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="W19" s="7">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="X19" s="7">
         <v>-32</v>
       </c>
       <c r="Y19" s="7">
+        <v>-32</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>-32</v>
+      </c>
+      <c r="AA19" s="7">
         <v>-33</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>-33</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>-34</v>
       </c>
       <c r="AB19" s="7">
         <v>-33</v>
       </c>
       <c r="AC19" s="7">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="AD19" s="7">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="AE19" s="6">
         <v>-30</v>
@@ -3100,7 +3100,7 @@
         <v>-30</v>
       </c>
       <c r="AG19" s="6">
-        <v>-29</v>
+        <v>-27</v>
       </c>
       <c r="AH19" s="6">
         <v>-27</v>
@@ -3109,43 +3109,43 @@
         <v>-26</v>
       </c>
       <c r="AJ19" s="6">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AK19" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AL19" s="6">
         <v>-22</v>
       </c>
-      <c r="AM19" s="6">
-        <v>-21</v>
+      <c r="AM19" s="5">
+        <v>-20</v>
       </c>
       <c r="AN19" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="AO19" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AP19" s="5">
         <v>-17</v>
       </c>
       <c r="AQ19" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AR19" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AS19" s="5">
         <v>-12</v>
       </c>
       <c r="AT19" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AU19" s="5">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="AV19" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AW19" s="5">
         <v>0</v>
@@ -3183,103 +3183,103 @@
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M20" s="5">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="N20" s="6">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="O20" s="7">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="P20" s="7">
-        <v>-40</v>
+        <v>-38</v>
       </c>
       <c r="Q20" s="4">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="R20" s="4">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="S20" s="4">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="T20" s="4">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="U20" s="4">
         <v>-56</v>
       </c>
       <c r="V20" s="4">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="W20" s="4">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="X20" s="4">
         <v>-63</v>
       </c>
       <c r="Y20" s="4">
-        <v>-66</v>
+        <v>-65</v>
       </c>
       <c r="Z20" s="4">
-        <v>-69</v>
+        <v>-68</v>
       </c>
       <c r="AA20" s="4">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="AB20" s="4">
         <v>-72</v>
       </c>
       <c r="AC20" s="4">
-        <v>-75</v>
+        <v>-74</v>
       </c>
       <c r="AD20" s="4">
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="AE20" s="4">
         <v>-77</v>
       </c>
       <c r="AF20" s="4">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="AG20" s="4">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="AH20" s="4">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="AI20" s="4">
         <v>-78</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="AK20" s="4">
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="AL20" s="4">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="AM20" s="4">
         <v>-76</v>
       </c>
       <c r="AN20" s="4">
-        <v>-75</v>
+        <v>-73</v>
       </c>
       <c r="AO20" s="4">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="AP20" s="4">
-        <v>-66</v>
+        <v>-65</v>
       </c>
       <c r="AQ20" s="4">
-        <v>-61</v>
+        <v>-60</v>
       </c>
       <c r="AR20" s="4">
-        <v>-53</v>
+        <v>-52</v>
       </c>
       <c r="AS20" s="4">
         <v>-44</v>
@@ -3288,7 +3288,7 @@
         <v>-33</v>
       </c>
       <c r="AU20" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AV20" s="5">
         <v>-7</v>
@@ -3329,52 +3329,52 @@
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="M21" s="6">
-        <v>-23</v>
+        <v>-21</v>
       </c>
       <c r="N21" s="6">
-        <v>-29</v>
+        <v>-27</v>
       </c>
       <c r="O21" s="7">
-        <v>-35</v>
+        <v>-33</v>
       </c>
       <c r="P21" s="7">
+        <v>-36</v>
+      </c>
+      <c r="Q21" s="7">
         <v>-38</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="7">
         <v>-39</v>
       </c>
-      <c r="R21" s="7">
-        <v>-40</v>
-      </c>
       <c r="S21" s="4">
+        <v>-41</v>
+      </c>
+      <c r="T21" s="4">
         <v>-43</v>
-      </c>
-      <c r="T21" s="4">
-        <v>-44</v>
       </c>
       <c r="U21" s="4">
         <v>-45</v>
       </c>
       <c r="V21" s="4">
+        <v>-46</v>
+      </c>
+      <c r="W21" s="4">
         <v>-47</v>
       </c>
-      <c r="W21" s="4">
-        <v>-48</v>
-      </c>
       <c r="X21" s="4">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="Y21" s="4">
         <v>-48</v>
       </c>
       <c r="Z21" s="4">
+        <v>-49</v>
+      </c>
+      <c r="AA21" s="4">
         <v>-51</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>-52</v>
       </c>
       <c r="AB21" s="4">
         <v>-52</v>
@@ -3386,34 +3386,34 @@
         <v>-54</v>
       </c>
       <c r="AE21" s="4">
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="AF21" s="4">
         <v>-54</v>
       </c>
       <c r="AG21" s="4">
-        <v>-55</v>
+        <v>-53</v>
       </c>
       <c r="AH21" s="4">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="AI21" s="4">
         <v>-55</v>
       </c>
       <c r="AJ21" s="4">
+        <v>-55</v>
+      </c>
+      <c r="AK21" s="4">
         <v>-56</v>
-      </c>
-      <c r="AK21" s="4">
-        <v>-57</v>
       </c>
       <c r="AL21" s="4">
         <v>-55</v>
       </c>
       <c r="AM21" s="4">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="AN21" s="4">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="AO21" s="4">
         <v>-51</v>
@@ -3422,10 +3422,10 @@
         <v>-48</v>
       </c>
       <c r="AQ21" s="4">
-        <v>-46</v>
+        <v>-44</v>
       </c>
       <c r="AR21" s="7">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="AS21" s="7">
         <v>-33</v>
@@ -3434,7 +3434,7 @@
         <v>-25</v>
       </c>
       <c r="AU21" s="5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="AV21" s="5">
         <v>-6</v>
@@ -3622,82 +3622,82 @@
         <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S24" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T24" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U24" s="5">
         <v>-2</v>
       </c>
       <c r="V24" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W24" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X24" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB24" s="5">
         <v>0</v>
       </c>
       <c r="AC24" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE24" s="5">
         <v>0</v>
       </c>
       <c r="AF24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG24" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI24" s="5">
         <v>7</v>
       </c>
       <c r="AJ24" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK24" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL24" s="5">
         <v>8</v>
@@ -3706,7 +3706,7 @@
         <v>9</v>
       </c>
       <c r="AN24" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO24" s="5">
         <v>9</v>
@@ -3715,10 +3715,10 @@
         <v>8</v>
       </c>
       <c r="AQ24" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR24" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS24" s="5">
         <v>1</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AV24" s="5">
         <v>-1</v>
@@ -3768,70 +3768,70 @@
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O25" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P25" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q25" s="5">
         <v>10</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>11</v>
       </c>
       <c r="R25" s="6">
         <v>13</v>
       </c>
       <c r="S25" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T25" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U25" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V25" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W25" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X25" s="6">
         <v>16</v>
       </c>
       <c r="Y25" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z25" s="6">
         <v>16</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AA25" s="6">
         <v>15</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>14</v>
       </c>
       <c r="AB25" s="6">
         <v>14</v>
       </c>
       <c r="AC25" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD25" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE25" s="6">
         <v>13</v>
       </c>
       <c r="AF25" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG25" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH25" s="6">
         <v>16</v>
@@ -3840,19 +3840,19 @@
         <v>15</v>
       </c>
       <c r="AJ25" s="6">
+        <v>17</v>
+      </c>
+      <c r="AK25" s="6">
         <v>16</v>
-      </c>
-      <c r="AK25" s="6">
-        <v>14</v>
       </c>
       <c r="AL25" s="6">
         <v>14</v>
       </c>
       <c r="AM25" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN25" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO25" s="6">
         <v>12</v>
@@ -3861,19 +3861,19 @@
         <v>10</v>
       </c>
       <c r="AQ25" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR25" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS25" s="5">
         <v>4</v>
       </c>
       <c r="AT25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV25" s="5">
         <v>0</v>
@@ -3914,40 +3914,40 @@
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M26" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" s="5">
+        <v>6</v>
+      </c>
+      <c r="S26" s="5">
+        <v>7</v>
+      </c>
+      <c r="T26" s="5">
+        <v>6</v>
+      </c>
+      <c r="U26" s="5">
         <v>5</v>
       </c>
-      <c r="S26" s="5">
+      <c r="V26" s="5">
+        <v>6</v>
+      </c>
+      <c r="W26" s="5">
         <v>5</v>
-      </c>
-      <c r="T26" s="5">
-        <v>5</v>
-      </c>
-      <c r="U26" s="5">
-        <v>4</v>
-      </c>
-      <c r="V26" s="5">
-        <v>4</v>
-      </c>
-      <c r="W26" s="5">
-        <v>4</v>
       </c>
       <c r="X26" s="5">
         <v>4</v>
@@ -3956,40 +3956,40 @@
         <v>4</v>
       </c>
       <c r="Z26" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="5">
         <v>3</v>
-      </c>
-      <c r="AA26" s="5">
-        <v>2</v>
       </c>
       <c r="AB26" s="5">
         <v>1</v>
       </c>
       <c r="AC26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="5">
         <v>2</v>
       </c>
       <c r="AE26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG26" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" s="5">
         <v>6</v>
       </c>
       <c r="AJ26" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK26" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" s="5">
         <v>8</v>
@@ -3998,7 +3998,7 @@
         <v>8</v>
       </c>
       <c r="AN26" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO26" s="5">
         <v>6</v>
@@ -4007,19 +4007,19 @@
         <v>4</v>
       </c>
       <c r="AQ26" s="5">
+        <v>3</v>
+      </c>
+      <c r="AR26" s="5">
         <v>2</v>
       </c>
-      <c r="AR26" s="5">
-        <v>1</v>
-      </c>
       <c r="AS26" s="5">
         <v>0</v>
       </c>
       <c r="AT26" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AU26" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AV26" s="5">
         <v>-1</v>
@@ -4060,58 +4060,58 @@
         <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M27" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R27" s="5">
+        <v>5</v>
+      </c>
+      <c r="S27" s="5">
+        <v>6</v>
+      </c>
+      <c r="T27" s="5">
         <v>4</v>
-      </c>
-      <c r="S27" s="5">
-        <v>4</v>
-      </c>
-      <c r="T27" s="5">
-        <v>3</v>
       </c>
       <c r="U27" s="5">
         <v>3</v>
       </c>
       <c r="V27" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W27" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X27" s="5">
         <v>2</v>
       </c>
       <c r="Y27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB27" s="5">
         <v>-2</v>
       </c>
       <c r="AC27" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AD27" s="5">
         <v>-3</v>
@@ -4123,7 +4123,7 @@
         <v>-3</v>
       </c>
       <c r="AG27" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="5">
         <v>-2</v>
@@ -4132,10 +4132,10 @@
         <v>-3</v>
       </c>
       <c r="AJ27" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK27" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="5">
         <v>-1</v>
@@ -4144,7 +4144,7 @@
         <v>-1</v>
       </c>
       <c r="AN27" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="5">
         <v>-1</v>
@@ -4153,19 +4153,19 @@
         <v>-2</v>
       </c>
       <c r="AQ27" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR27" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS27" s="5">
         <v>-3</v>
       </c>
       <c r="AT27" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AU27" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AV27" s="5">
         <v>-1</v>
@@ -4206,58 +4206,58 @@
         <v>0</v>
       </c>
       <c r="L28" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="5">
         <v>-3</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
+        <v>-5</v>
+      </c>
+      <c r="O28" s="5">
+        <v>-3</v>
+      </c>
+      <c r="P28" s="5">
+        <v>-3</v>
+      </c>
+      <c r="Q28" s="5">
         <v>-4</v>
-      </c>
-      <c r="N28" s="5">
-        <v>-6</v>
-      </c>
-      <c r="O28" s="5">
-        <v>-5</v>
-      </c>
-      <c r="P28" s="5">
-        <v>-5</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>-5</v>
       </c>
       <c r="R28" s="5">
         <v>-3</v>
       </c>
       <c r="S28" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T28" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="U28" s="5">
         <v>-5</v>
       </c>
       <c r="V28" s="5">
+        <v>-4</v>
+      </c>
+      <c r="W28" s="5">
+        <v>-4</v>
+      </c>
+      <c r="X28" s="5">
         <v>-5</v>
       </c>
-      <c r="W28" s="5">
+      <c r="Y28" s="5">
         <v>-5</v>
       </c>
-      <c r="X28" s="5">
+      <c r="Z28" s="5">
+        <v>-5</v>
+      </c>
+      <c r="AA28" s="5">
         <v>-6</v>
       </c>
-      <c r="Y28" s="5">
-        <v>-6</v>
-      </c>
-      <c r="Z28" s="5">
-        <v>-6</v>
-      </c>
-      <c r="AA28" s="5">
-        <v>-7</v>
-      </c>
       <c r="AB28" s="5">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AC28" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AD28" s="5">
         <v>-9</v>
@@ -4269,7 +4269,7 @@
         <v>-11</v>
       </c>
       <c r="AG28" s="5">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="AH28" s="5">
         <v>-10</v>
@@ -4278,10 +4278,10 @@
         <v>-11</v>
       </c>
       <c r="AJ28" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AK28" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AL28" s="5">
         <v>-8</v>
@@ -4290,7 +4290,7 @@
         <v>-8</v>
       </c>
       <c r="AN28" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AO28" s="5">
         <v>-7</v>
@@ -4299,10 +4299,10 @@
         <v>-8</v>
       </c>
       <c r="AQ28" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AR28" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AS28" s="5">
         <v>-6</v>
@@ -4311,10 +4311,10 @@
         <v>-5</v>
       </c>
       <c r="AU28" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AV28" s="5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AW28" s="5">
         <v>0</v>
@@ -4352,82 +4352,82 @@
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S29" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U29" s="5">
         <v>-3</v>
       </c>
       <c r="V29" s="5">
+        <v>-2</v>
+      </c>
+      <c r="W29" s="5">
+        <v>-2</v>
+      </c>
+      <c r="X29" s="5">
         <v>-3</v>
       </c>
-      <c r="W29" s="5">
-        <v>-3</v>
-      </c>
-      <c r="X29" s="5">
+      <c r="Y29" s="5">
         <v>-4</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="Z29" s="5">
         <v>-5</v>
       </c>
-      <c r="Z29" s="5">
-        <v>-6</v>
-      </c>
       <c r="AA29" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AB29" s="5">
         <v>-9</v>
       </c>
       <c r="AC29" s="5">
+        <v>-9</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>-9</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>-11</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>-11</v>
+      </c>
+      <c r="AG29" s="5">
         <v>-10</v>
       </c>
-      <c r="AD29" s="5">
-        <v>-10</v>
-      </c>
-      <c r="AE29" s="5">
-        <v>-10</v>
-      </c>
-      <c r="AF29" s="5">
-        <v>-12</v>
-      </c>
-      <c r="AG29" s="5">
-        <v>-12</v>
-      </c>
       <c r="AH29" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AI29" s="5">
         <v>-13</v>
       </c>
       <c r="AJ29" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AK29" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AL29" s="5">
         <v>-14</v>
@@ -4436,7 +4436,7 @@
         <v>-14</v>
       </c>
       <c r="AN29" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AO29" s="5">
         <v>-12</v>
@@ -4445,10 +4445,10 @@
         <v>-11</v>
       </c>
       <c r="AQ29" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AR29" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AS29" s="5">
         <v>-5</v>
@@ -4457,7 +4457,7 @@
         <v>-4</v>
       </c>
       <c r="AU29" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AV29" s="5">
         <v>-1</v>
@@ -4498,40 +4498,40 @@
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P30" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T30" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U30" s="5">
         <v>4</v>
       </c>
       <c r="V30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X30" s="5">
         <v>4</v>
@@ -4540,11 +4540,11 @@
         <v>3</v>
       </c>
       <c r="Z30" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="5">
         <v>2</v>
       </c>
-      <c r="AA30" s="5">
-        <v>1</v>
-      </c>
       <c r="AB30" s="5">
         <v>0</v>
       </c>
@@ -4561,49 +4561,49 @@
         <v>-2</v>
       </c>
       <c r="AG30" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH30" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AI30" s="5">
         <v>-3</v>
       </c>
       <c r="AJ30" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AK30" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AL30" s="5">
         <v>-3</v>
       </c>
       <c r="AM30" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AN30" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO30" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP30" s="5">
         <v>-2</v>
       </c>
       <c r="AQ30" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR30" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS30" s="5">
         <v>-3</v>
       </c>
       <c r="AT30" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AU30" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AV30" s="5">
         <v>0</v>
@@ -4644,40 +4644,40 @@
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N31" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O31" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P31" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="Q31" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R31" s="5">
         <v>-3</v>
       </c>
       <c r="S31" s="5">
+        <v>-2</v>
+      </c>
+      <c r="T31" s="5">
+        <v>-2</v>
+      </c>
+      <c r="U31" s="5">
         <v>-3</v>
       </c>
-      <c r="T31" s="5">
-        <v>-3</v>
-      </c>
-      <c r="U31" s="5">
+      <c r="V31" s="5">
         <v>-4</v>
       </c>
-      <c r="V31" s="5">
-        <v>-5</v>
-      </c>
       <c r="W31" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="X31" s="5">
         <v>-5</v>
@@ -4686,10 +4686,10 @@
         <v>-6</v>
       </c>
       <c r="Z31" s="5">
+        <v>-7</v>
+      </c>
+      <c r="AA31" s="5">
         <v>-8</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>-9</v>
       </c>
       <c r="AB31" s="5">
         <v>-10</v>
@@ -4698,37 +4698,37 @@
         <v>-11</v>
       </c>
       <c r="AD31" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AE31" s="5">
         <v>-12</v>
       </c>
       <c r="AF31" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AG31" s="5">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="AH31" s="5">
         <v>-12</v>
       </c>
       <c r="AI31" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AJ31" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AK31" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AL31" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AM31" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="AN31" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AO31" s="5">
         <v>-8</v>
@@ -4737,19 +4737,19 @@
         <v>-8</v>
       </c>
       <c r="AQ31" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AR31" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AS31" s="5">
         <v>-6</v>
       </c>
       <c r="AT31" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AU31" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AV31" s="5">
         <v>-1</v>
@@ -4790,49 +4790,49 @@
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="O32" s="5">
+        <v>-5</v>
+      </c>
+      <c r="P32" s="5">
+        <v>-5</v>
+      </c>
+      <c r="Q32" s="5">
         <v>-7</v>
       </c>
-      <c r="P32" s="5">
+      <c r="R32" s="5">
         <v>-7</v>
       </c>
-      <c r="Q32" s="5">
-        <v>-8</v>
-      </c>
-      <c r="R32" s="5">
-        <v>-8</v>
-      </c>
       <c r="S32" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="T32" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="U32" s="5">
+        <v>-9</v>
+      </c>
+      <c r="V32" s="5">
+        <v>-9</v>
+      </c>
+      <c r="W32" s="5">
+        <v>-9</v>
+      </c>
+      <c r="X32" s="5">
         <v>-10</v>
       </c>
-      <c r="V32" s="5">
-        <v>-11</v>
-      </c>
-      <c r="W32" s="5">
-        <v>-11</v>
-      </c>
-      <c r="X32" s="5">
-        <v>-11</v>
-      </c>
       <c r="Y32" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="Z32" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AA32" s="5">
         <v>-14</v>
@@ -4841,10 +4841,10 @@
         <v>-15</v>
       </c>
       <c r="AC32" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AD32" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AE32" s="5">
         <v>-15</v>
@@ -4853,28 +4853,28 @@
         <v>-16</v>
       </c>
       <c r="AG32" s="5">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="AH32" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AI32" s="5">
         <v>-15</v>
       </c>
       <c r="AJ32" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AK32" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AL32" s="5">
         <v>-13</v>
       </c>
       <c r="AM32" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AN32" s="5">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="AO32" s="5">
         <v>-9</v>
@@ -4883,10 +4883,10 @@
         <v>-9</v>
       </c>
       <c r="AQ32" s="5">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="AR32" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AS32" s="5">
         <v>-6</v>
@@ -4895,7 +4895,7 @@
         <v>-5</v>
       </c>
       <c r="AU32" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AV32" s="5">
         <v>-1</v>
@@ -4936,52 +4936,52 @@
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N33" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P33" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Q33" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA33" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AB33" s="5">
         <v>-3</v>
@@ -4990,7 +4990,7 @@
         <v>-4</v>
       </c>
       <c r="AD33" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AE33" s="5">
         <v>-5</v>
@@ -4999,7 +4999,7 @@
         <v>-5</v>
       </c>
       <c r="AG33" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AH33" s="5">
         <v>-4</v>
@@ -5008,10 +5008,10 @@
         <v>-4</v>
       </c>
       <c r="AJ33" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AK33" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AL33" s="5">
         <v>-4</v>
@@ -5020,7 +5020,7 @@
         <v>-4</v>
       </c>
       <c r="AN33" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AO33" s="5">
         <v>-5</v>
@@ -5029,19 +5029,19 @@
         <v>-6</v>
       </c>
       <c r="AQ33" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AR33" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AS33" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AT33" s="5">
         <v>-5</v>
       </c>
       <c r="AU33" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AV33" s="5">
         <v>-1</v>
@@ -5082,58 +5082,58 @@
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M34" s="5">
+        <v>-4</v>
+      </c>
+      <c r="N34" s="5">
         <v>-6</v>
       </c>
-      <c r="N34" s="5">
-        <v>-7</v>
-      </c>
       <c r="O34" s="5">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="P34" s="5">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="Q34" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="R34" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="S34" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="T34" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="U34" s="5">
         <v>-9</v>
       </c>
       <c r="V34" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="W34" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="X34" s="5">
         <v>-7</v>
       </c>
       <c r="Y34" s="5">
+        <v>-7</v>
+      </c>
+      <c r="Z34" s="5">
         <v>-8</v>
       </c>
-      <c r="Z34" s="5">
-        <v>-9</v>
-      </c>
       <c r="AA34" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AB34" s="5">
         <v>-9</v>
       </c>
       <c r="AC34" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AD34" s="5">
         <v>-10</v>
@@ -5145,28 +5145,28 @@
         <v>-9</v>
       </c>
       <c r="AG34" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AH34" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AI34" s="5">
         <v>-6</v>
       </c>
       <c r="AJ34" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AK34" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AL34" s="5">
         <v>-7</v>
       </c>
       <c r="AM34" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AN34" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AO34" s="5">
         <v>-6</v>
@@ -5175,22 +5175,22 @@
         <v>-8</v>
       </c>
       <c r="AQ34" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AR34" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AS34" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AT34" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AU34" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="AV34" s="5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AW34" s="5">
         <v>0</v>
@@ -5228,52 +5228,52 @@
         <v>0</v>
       </c>
       <c r="L35" s="5">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M35" s="5">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="N35" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="O35" s="5">
+        <v>-11</v>
+      </c>
+      <c r="P35" s="5">
+        <v>-12</v>
+      </c>
+      <c r="Q35" s="5">
         <v>-13</v>
-      </c>
-      <c r="P35" s="5">
-        <v>-14</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>-14</v>
       </c>
       <c r="R35" s="5">
         <v>-13</v>
       </c>
       <c r="S35" s="5">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="T35" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="U35" s="5">
         <v>-13</v>
       </c>
       <c r="V35" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="W35" s="5">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="X35" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="Y35" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="Z35" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AA35" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AB35" s="5">
         <v>-13</v>
@@ -5282,7 +5282,7 @@
         <v>-14</v>
       </c>
       <c r="AD35" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AE35" s="5">
         <v>-14</v>
@@ -5291,49 +5291,49 @@
         <v>-15</v>
       </c>
       <c r="AG35" s="5">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="AH35" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AI35" s="5">
         <v>-14</v>
       </c>
       <c r="AJ35" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AK35" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AL35" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AM35" s="5">
         <v>-14</v>
       </c>
       <c r="AN35" s="5">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="AO35" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AP35" s="5">
         <v>-13</v>
       </c>
       <c r="AQ35" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AR35" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AS35" s="5">
         <v>-10</v>
       </c>
       <c r="AT35" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AU35" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AV35" s="5">
         <v>-2</v>
@@ -5374,40 +5374,40 @@
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M36" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="N36" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="O36" s="5">
+        <v>-9</v>
+      </c>
+      <c r="P36" s="5">
         <v>-11</v>
       </c>
-      <c r="P36" s="5">
+      <c r="Q36" s="5">
+        <v>-12</v>
+      </c>
+      <c r="R36" s="5">
         <v>-13</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="S36" s="5">
+        <v>-12</v>
+      </c>
+      <c r="T36" s="5">
         <v>-13</v>
-      </c>
-      <c r="R36" s="5">
-        <v>-14</v>
-      </c>
-      <c r="S36" s="5">
-        <v>-14</v>
-      </c>
-      <c r="T36" s="5">
-        <v>-14</v>
       </c>
       <c r="U36" s="5">
         <v>-15</v>
       </c>
       <c r="V36" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="W36" s="5">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="X36" s="5">
         <v>-16</v>
@@ -5416,10 +5416,10 @@
         <v>-16</v>
       </c>
       <c r="Z36" s="5">
+        <v>-17</v>
+      </c>
+      <c r="AA36" s="5">
         <v>-18</v>
-      </c>
-      <c r="AA36" s="5">
-        <v>-19</v>
       </c>
       <c r="AB36" s="5">
         <v>-20</v>
@@ -5427,8 +5427,8 @@
       <c r="AC36" s="6">
         <v>-21</v>
       </c>
-      <c r="AD36" s="6">
-        <v>-21</v>
+      <c r="AD36" s="5">
+        <v>-20</v>
       </c>
       <c r="AE36" s="5">
         <v>-19</v>
@@ -5437,28 +5437,28 @@
         <v>-18</v>
       </c>
       <c r="AG36" s="5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="AH36" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="AI36" s="5">
         <v>-16</v>
       </c>
       <c r="AJ36" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AK36" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="AL36" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AM36" s="5">
         <v>-16</v>
       </c>
       <c r="AN36" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AO36" s="5">
         <v>-14</v>
@@ -5467,19 +5467,19 @@
         <v>-14</v>
       </c>
       <c r="AQ36" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="AR36" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="AS36" s="5">
         <v>-10</v>
       </c>
       <c r="AT36" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AU36" s="5">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AV36" s="5">
         <v>-1</v>
@@ -5520,49 +5520,49 @@
         <v>0</v>
       </c>
       <c r="L37" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M37" s="5">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="N37" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="O37" s="5">
+        <v>-8</v>
+      </c>
+      <c r="P37" s="5">
+        <v>-9</v>
+      </c>
+      <c r="Q37" s="5">
         <v>-10</v>
       </c>
-      <c r="P37" s="5">
+      <c r="R37" s="5">
+        <v>-10</v>
+      </c>
+      <c r="S37" s="5">
+        <v>-10</v>
+      </c>
+      <c r="T37" s="5">
         <v>-11</v>
       </c>
-      <c r="Q37" s="5">
-        <v>-11</v>
-      </c>
-      <c r="R37" s="5">
-        <v>-11</v>
-      </c>
-      <c r="S37" s="5">
-        <v>-11</v>
-      </c>
-      <c r="T37" s="5">
+      <c r="U37" s="5">
         <v>-12</v>
       </c>
-      <c r="U37" s="5">
-        <v>-13</v>
-      </c>
       <c r="V37" s="5">
+        <v>-14</v>
+      </c>
+      <c r="W37" s="5">
         <v>-15</v>
       </c>
-      <c r="W37" s="5">
+      <c r="X37" s="5">
         <v>-16</v>
       </c>
-      <c r="X37" s="5">
+      <c r="Y37" s="5">
         <v>-17</v>
       </c>
-      <c r="Y37" s="5">
-        <v>-18</v>
-      </c>
       <c r="Z37" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="AA37" s="6">
         <v>-22</v>
@@ -5571,7 +5571,7 @@
         <v>-23</v>
       </c>
       <c r="AC37" s="6">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AD37" s="6">
         <v>-24</v>
@@ -5580,31 +5580,31 @@
         <v>-24</v>
       </c>
       <c r="AF37" s="6">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AG37" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AH37" s="6">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="AI37" s="6">
         <v>-21</v>
       </c>
-      <c r="AJ37" s="6">
+      <c r="AJ37" s="5">
+        <v>-20</v>
+      </c>
+      <c r="AK37" s="6">
         <v>-21</v>
       </c>
-      <c r="AK37" s="6">
-        <v>-22</v>
-      </c>
       <c r="AL37" s="6">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="AM37" s="6">
         <v>-22</v>
       </c>
       <c r="AN37" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AO37" s="6">
         <v>-21</v>
@@ -5613,19 +5613,19 @@
         <v>-21</v>
       </c>
       <c r="AQ37" s="6">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="AR37" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="AS37" s="5">
         <v>-17</v>
       </c>
       <c r="AT37" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="AU37" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="AV37" s="5">
         <v>-2</v>
@@ -5666,40 +5666,40 @@
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N38" s="5">
+        <v>-5</v>
+      </c>
+      <c r="O38" s="5">
         <v>-7</v>
       </c>
-      <c r="O38" s="5">
+      <c r="P38" s="5">
+        <v>-8</v>
+      </c>
+      <c r="Q38" s="5">
         <v>-9</v>
       </c>
-      <c r="P38" s="5">
+      <c r="R38" s="5">
         <v>-10</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="S38" s="5">
         <v>-10</v>
       </c>
-      <c r="R38" s="5">
-        <v>-11</v>
-      </c>
-      <c r="S38" s="5">
+      <c r="T38" s="5">
         <v>-12</v>
       </c>
-      <c r="T38" s="5">
-        <v>-13</v>
-      </c>
       <c r="U38" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="V38" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="W38" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="X38" s="5">
         <v>-18</v>
@@ -5707,11 +5707,11 @@
       <c r="Y38" s="5">
         <v>-19</v>
       </c>
-      <c r="Z38" s="6">
-        <v>-21</v>
+      <c r="Z38" s="5">
+        <v>-20</v>
       </c>
       <c r="AA38" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AB38" s="6">
         <v>-25</v>
@@ -5729,7 +5729,7 @@
         <v>-28</v>
       </c>
       <c r="AG38" s="6">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="AH38" s="6">
         <v>-27</v>
@@ -5738,19 +5738,19 @@
         <v>-26</v>
       </c>
       <c r="AJ38" s="6">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="AK38" s="6">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AL38" s="6">
         <v>-24</v>
       </c>
       <c r="AM38" s="6">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AN38" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AO38" s="5">
         <v>-20</v>
@@ -5759,19 +5759,19 @@
         <v>-18</v>
       </c>
       <c r="AQ38" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AR38" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="AS38" s="5">
         <v>-14</v>
       </c>
       <c r="AT38" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="AU38" s="5">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AV38" s="5">
         <v>-2</v>
@@ -5812,91 +5812,91 @@
         <v>0</v>
       </c>
       <c r="L39" s="5">
+        <v>-2</v>
+      </c>
+      <c r="M39" s="5">
         <v>-4</v>
       </c>
-      <c r="M39" s="5">
-        <v>-6</v>
-      </c>
       <c r="N39" s="5">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="O39" s="5">
+        <v>-9</v>
+      </c>
+      <c r="P39" s="5">
+        <v>-10</v>
+      </c>
+      <c r="Q39" s="5">
         <v>-11</v>
       </c>
-      <c r="P39" s="5">
+      <c r="R39" s="5">
         <v>-12</v>
       </c>
-      <c r="Q39" s="5">
-        <v>-12</v>
-      </c>
-      <c r="R39" s="5">
+      <c r="S39" s="5">
         <v>-13</v>
       </c>
-      <c r="S39" s="5">
-        <v>-15</v>
-      </c>
       <c r="T39" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="U39" s="5">
         <v>-16</v>
       </c>
       <c r="V39" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="W39" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="X39" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="Y39" s="5">
         <v>-20</v>
       </c>
       <c r="Z39" s="6">
+        <v>-22</v>
+      </c>
+      <c r="AA39" s="6">
         <v>-23</v>
-      </c>
-      <c r="AA39" s="6">
-        <v>-24</v>
       </c>
       <c r="AB39" s="6">
         <v>-25</v>
       </c>
       <c r="AC39" s="6">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="AD39" s="6">
         <v>-28</v>
       </c>
       <c r="AE39" s="6">
+        <v>-28</v>
+      </c>
+      <c r="AF39" s="6">
+        <v>-28</v>
+      </c>
+      <c r="AG39" s="6">
         <v>-27</v>
       </c>
-      <c r="AF39" s="6">
-        <v>-29</v>
-      </c>
-      <c r="AG39" s="6">
-        <v>-29</v>
-      </c>
       <c r="AH39" s="6">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="AI39" s="6">
         <v>-26</v>
       </c>
       <c r="AJ39" s="6">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="AK39" s="6">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AL39" s="6">
         <v>-24</v>
       </c>
       <c r="AM39" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AN39" s="6">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="AO39" s="5">
         <v>-20</v>
@@ -5905,19 +5905,19 @@
         <v>-20</v>
       </c>
       <c r="AQ39" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="AR39" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AS39" s="5">
         <v>-15</v>
       </c>
       <c r="AT39" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AU39" s="5">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="AV39" s="5">
         <v>-3</v>
@@ -5958,52 +5958,52 @@
         <v>0</v>
       </c>
       <c r="L40" s="5">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="M40" s="6">
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="N40" s="7">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="O40" s="4">
-        <v>-49</v>
+        <v>-47</v>
       </c>
       <c r="P40" s="4">
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="Q40" s="4">
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="R40" s="4">
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="S40" s="4">
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="T40" s="4">
-        <v>-93</v>
+        <v>-91</v>
       </c>
       <c r="U40" s="4">
-        <v>-98</v>
+        <v>-97</v>
       </c>
       <c r="V40" s="4">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="W40" s="4">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="X40" s="4">
         <v>-105</v>
       </c>
       <c r="Y40" s="4">
+        <v>-106</v>
+      </c>
+      <c r="Z40" s="4">
         <v>-107</v>
       </c>
-      <c r="Z40" s="4">
-        <v>-108</v>
-      </c>
       <c r="AA40" s="4">
-        <v>-108</v>
+        <v>-107</v>
       </c>
       <c r="AB40" s="4">
         <v>-107</v>
@@ -6012,7 +6012,7 @@
         <v>-107</v>
       </c>
       <c r="AD40" s="4">
-        <v>-107</v>
+        <v>-106</v>
       </c>
       <c r="AE40" s="4">
         <v>-104</v>
@@ -6021,7 +6021,7 @@
         <v>-102</v>
       </c>
       <c r="AG40" s="4">
-        <v>-101</v>
+        <v>-99</v>
       </c>
       <c r="AH40" s="4">
         <v>-98</v>
@@ -6030,10 +6030,10 @@
         <v>-94</v>
       </c>
       <c r="AJ40" s="4">
-        <v>-92</v>
+        <v>-91</v>
       </c>
       <c r="AK40" s="4">
-        <v>-89</v>
+        <v>-87</v>
       </c>
       <c r="AL40" s="4">
         <v>-84</v>
@@ -6042,28 +6042,28 @@
         <v>-80</v>
       </c>
       <c r="AN40" s="4">
-        <v>-77</v>
+        <v>-75</v>
       </c>
       <c r="AO40" s="4">
         <v>-70</v>
       </c>
       <c r="AP40" s="4">
-        <v>-65</v>
+        <v>-64</v>
       </c>
       <c r="AQ40" s="4">
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="AR40" s="4">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="AS40" s="7">
         <v>-39</v>
       </c>
       <c r="AT40" s="6">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="AU40" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AV40" s="5">
         <v>-6</v>
@@ -6104,70 +6104,70 @@
         <v>0</v>
       </c>
       <c r="L41" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M41" s="5">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="N41" s="5">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="O41" s="6">
-        <v>-29</v>
+        <v>-27</v>
       </c>
       <c r="P41" s="7">
-        <v>-38</v>
+        <v>-36</v>
       </c>
       <c r="Q41" s="4">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="R41" s="4">
-        <v>-51</v>
+        <v>-50</v>
       </c>
       <c r="S41" s="4">
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="T41" s="4">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="U41" s="4">
         <v>-66</v>
       </c>
       <c r="V41" s="4">
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="W41" s="4">
-        <v>-73</v>
+        <v>-71</v>
       </c>
       <c r="X41" s="4">
-        <v>-73</v>
+        <v>-72</v>
       </c>
       <c r="Y41" s="4">
         <v>-73</v>
       </c>
       <c r="Z41" s="4">
-        <v>-74</v>
+        <v>-73</v>
       </c>
       <c r="AA41" s="4">
-        <v>-74</v>
+        <v>-73</v>
       </c>
       <c r="AB41" s="4">
         <v>-74</v>
       </c>
       <c r="AC41" s="4">
-        <v>-74</v>
+        <v>-73</v>
       </c>
       <c r="AD41" s="4">
-        <v>-74</v>
+        <v>-73</v>
       </c>
       <c r="AE41" s="4">
-        <v>-71</v>
+        <v>-72</v>
       </c>
       <c r="AF41" s="4">
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="AG41" s="4">
-        <v>-69</v>
+        <v>-67</v>
       </c>
       <c r="AH41" s="4">
         <v>-66</v>
@@ -6176,10 +6176,10 @@
         <v>-62</v>
       </c>
       <c r="AJ41" s="4">
-        <v>-60</v>
+        <v>-59</v>
       </c>
       <c r="AK41" s="4">
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="AL41" s="4">
         <v>-53</v>
@@ -6188,7 +6188,7 @@
         <v>-49</v>
       </c>
       <c r="AN41" s="4">
-        <v>-47</v>
+        <v>-45</v>
       </c>
       <c r="AO41" s="4">
         <v>-42</v>
@@ -6197,10 +6197,10 @@
         <v>-38</v>
       </c>
       <c r="AQ41" s="7">
-        <v>-35</v>
+        <v>-33</v>
       </c>
       <c r="AR41" s="6">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="AS41" s="6">
         <v>-24</v>
@@ -6209,7 +6209,7 @@
         <v>-18</v>
       </c>
       <c r="AU41" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AV41" s="5">
         <v>-4</v>
